--- a/data/Antuco.xlsx
+++ b/data/Antuco.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Peñasco Redondo</t>
+          <t>?Regularización Plantel Lechero y Engorda Fundo Santa Cristina?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MVC SOLAR 13 SpA</t>
+          <t>Agropecuaria Los Varones Ltda.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11000</v>
+        <v>700</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>10/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156669278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151450361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
+          <t>Parque Fotovoltaico Peñasco Redondo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SUR INVERSIONES S.A.</t>
+          <t>MVC SOLAR 13 SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>11000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/04/2017</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132328019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151450361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/12/2016</t>
+          <t>21/04/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131912907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132328019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13/10/2016</t>
+          <t>19/12/2016</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131859474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131912907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI051F1 - Antuco Canchas de Ski</t>
+          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Telefónica Móviles Chile S.A</t>
+          <t>SUR INVERSIONES S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>29/09/2016</t>
+          <t>13/10/2016</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131809941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131859474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI051F1 - Antuco Canchas de Ski</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SUR INVERSIONES S.A.</t>
+          <t>Telefónica Móviles Chile S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02/09/2016</t>
+          <t>29/09/2016</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131733752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131809941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI051F1 - Antuco Canchas de Ski</t>
+          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Telefónica Móviles Chile S.A</t>
+          <t>SUR INVERSIONES S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>05/08/2016</t>
+          <t>02/09/2016</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131661475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131733752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Complejo Ecoturístico Antucalhue</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI051F1 - Antuco Canchas de Ski</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Arturo Enrique Ahués Ugarte</t>
+          <t>Telefónica Móviles Chile S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>500</v>
+        <v>124</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>05/08/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7631818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131661475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Complejo Ecoturístico Antucalhue</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Arturo Enrique Ahués Ugarte</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7631818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROYECTO CONSTRUCCIÓN Y EQUIPAMIENTO DE CABAÑAS PARA EL DESARROLLO DEL ECOTURISMO EN LA COMUNA DE ANTUCO</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Arturo Enrique Ahués Ugarte</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5793066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PROYECTO CONSTRUCCIÓN Y EQUIPAMIENTO DE CABAÑAS PARA EL DESARROLLO DEL ECOTURISMO EN LA COMUNA DE ANTUCO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Arturo Enrique Ahués Ugarte</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>14/11/2011</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5793066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Memorial Mártires de Antuco (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gobernación provincial de Bio Bío</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3525202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Memorial Mártires de Antuco Memorial (e-seia)</t>
+          <t>Memorial Mártires de Antuco (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,21 +1259,21 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/01/2009</t>
+          <t>05/02/2009</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3525202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Antuco (e-seia)</t>
+          <t>Memorial Mártires de Antuco Memorial (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Antuco</t>
+          <t>Gobernación provincial de Bio Bío</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>24/09/2008</t>
+          <t>22/01/2009</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3166469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Plan Regulador Comunal de Antuco (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ilustre Municipalidad de Antuco</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>24/09/2008</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3166469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Construcción complejo fronterizo Pichachén (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gobernación provincial de Bio Bío</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2500</v>
+        <v>10</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2197422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Construcción complejo fronterizo Pichachén (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gobernación provincial de Bio Bío</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>05/07/2007</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2197422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,21 +1595,21 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Complejo Fronterizo Pichachén (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Gobernación provincial de Bio Bío</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2500</v>
+        <v>80</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>07/02/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Complejo Fronterizo Pichachén (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Gobernación provincial de Bio Bío</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>07/02/2007</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Proyecto Piscicultura Campamento Viejo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SUR INVERSIONES S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>07/10/2003</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=169181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN Y OPERACIÓN ANEXO LICEO DR. VICTOR RIOS RUIZ DE ANTUCO (e-seia)</t>
+          <t>Proyecto Piscicultura Campamento Viejo (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Antuco</t>
+          <t>SUR INVERSIONES S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30/10/2002</t>
+          <t>07/10/2003</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=169181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mejoramiento servicio de agua potable rural localidad de Villa Peluca y Villa Las Rosas Comuna de Antuco</t>
+          <t>CONSTRUCCIÓN Y OPERACIÓN ANEXO LICEO DR. VICTOR RIOS RUIZ DE ANTUCO (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Dirección de Obras Hidráulicas, VIII Región</t>
+          <t>Ilustre Municipalidad de Antuco</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/10/2002</t>
+          <t>30/10/2002</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mejoramiento servicio de agua potable rural localidad de Villa Los Canelos Comuna de Antuco</t>
+          <t>Mejoramiento servicio de agua potable rural localidad de Villa Peluca y Villa Las Rosas Comuna de Antuco</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación del Servicio de Agua Potable Rural de La Localidad de Antuco</t>
+          <t>Mejoramiento servicio de agua potable rural localidad de Villa Los Canelos Comuna de Antuco</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cooperativa de Agua Potable Agua y Sol Limitada</t>
+          <t>Dirección de Obras Hidráulicas, VIII Región</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12/07/2002</t>
+          <t>08/10/2002</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Construcción Sendero de Chile Tramo Los Pangues - Los Barros Parque Nacional Laguna del Laja</t>
+          <t>Mejoramiento y Ampliación del Servicio de Agua Potable Rural de La Localidad de Antuco</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>Cooperativa de Agua Potable Agua y Sol Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>12/07/2002</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Reparación Mayor Refugio Volcán Antuco.</t>
+          <t>Construcción Sendero de Chile Tramo Los Pangues - Los Barros Parque Nacional Laguna del Laja</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Deportes de Chile</t>
+          <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>31/05/2002</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Construcción y Equipamiento de Cabañas para el Desarrollo del Ecoturismo en la Comuna de Antuco Agroturismo Las Rosas Limitada</t>
+          <t>Reparación Mayor Refugio Volcán Antuco.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Servicio Turísticos Las Rosas Limitada</t>
+          <t>Instituto Nacional de Deportes de Chile</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>31/05/2002</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Construcción de Pista de Esquí y Andarivel para el Regimiento de Infantería Nº17 Los Angeles</t>
+          <t>Construcción y Equipamiento de Cabañas para el Desarrollo del Ecoturismo en la Comuna de Antuco Agroturismo Las Rosas Limitada</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ejército de Chile, Regimiento de Infantería Nº17 "Los Angeles"</t>
+          <t>Servicio Turísticos Las Rosas Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>420</v>
+        <v>10</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>25/04/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF Los Carrera s/n Comuna de Antuco Octava Región</t>
+          <t>Construcción de Pista de Esquí y Andarivel para el Regimiento de Infantería Nº17 Los Angeles</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Comercial Huckstadt Ltda.</t>
+          <t>Ejército de Chile, Regimiento de Infantería Nº17 "Los Angeles"</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>420</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>29/06/2000</t>
+          <t>25/04/2001</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2958&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Construcción Servicios Sanitarios en Parque Nacional Laguna Laja</t>
+          <t>Estación de Servicios YPF Los Carrera s/n Comuna de Antuco Octava Región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>Comercial Huckstadt Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17/08/1999</t>
+          <t>29/06/2000</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2958&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Construcción Guardería Parque Nacional Laguna Laja</t>
+          <t>Construcción Servicios Sanitarios en Parque Nacional Laguna Laja</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,11 +2555,11 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26/11/1997</t>
+          <t>17/08/1999</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Rucue</t>
+          <t>Construcción Guardería Parque Nacional Laguna Laja</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>182000</v>
+        <v>70</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>23/04/1996</t>
+          <t>26/11/1997</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,43 +2632,91 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Central Hidroeléctrica Rucue</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Colbún S.A.</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>182000</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>23/04/1996</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1003&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Antuco</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Interregional</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="F49" t="n">
         <v>850000</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Antuco</t>
         </is>

--- a/data/Antuco.xlsx
+++ b/data/Antuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/08/2022</t>
+          <t>16/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Antuco.xlsx
+++ b/data/Antuco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/09/2022</t>
+          <t>23/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Antuco.xlsx
+++ b/data/Antuco.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>?Regularización Plantel Lechero y Engorda Fundo Santa Cristina?</t>
+          <t>Regularización Plantel Lechero y Engorda Fundo Santa Cristina</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
